--- a/xls/square_high_un_16_tri3_16.xlsx
+++ b/xls/square_high_un_16_tri3_16.xlsx
@@ -13,7 +13,7 @@
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="new_sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +22,53 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+  <si>
+    <t>type w</t>
+  </si>
+  <si>
+    <t>nʷ</t>
+  </si>
+  <si>
+    <t>type φ</t>
+  </si>
+  <si>
+    <t>nᵠ</t>
+  </si>
+  <si>
+    <t>type Q</t>
+  </si>
+  <si>
+    <t>nˢ</t>
+  </si>
+  <si>
+    <t>type M</t>
+  </si>
+  <si>
+    <t>nᵐ</t>
+  </si>
+  <si>
+    <t>L₂w</t>
+  </si>
+  <si>
+    <t>L₂φ</t>
+  </si>
+  <si>
+    <t>L₂Q</t>
+  </si>
+  <si>
+    <t>ReproducingKernel{:Linear2D, :□, :CubicSpline}</t>
+  </si>
+  <si>
+    <t>tri3</t>
+  </si>
+  <si>
+    <t>PiecewisePolynomial{:Linear2D}</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,12 +418,643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>340</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>340</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>289</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>1536</v>
+      </c>
+      <c r="I16">
+        <v>-2.0120290986330533</v>
+      </c>
+      <c r="J16">
+        <v>-1.8918186959219436</v>
+      </c>
+      <c r="K16">
+        <v>-0.7420160667927064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>340</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>340</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>324</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>1734</v>
+      </c>
+      <c r="I17">
+        <v>-1.900556394055784</v>
+      </c>
+      <c r="J17">
+        <v>-1.55502401116296</v>
+      </c>
+      <c r="K17">
+        <v>0.09068787174600824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>340</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>340</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>361</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>1944</v>
+      </c>
+      <c r="I18">
+        <v>-1.3959937485262996</v>
+      </c>
+      <c r="J18">
+        <v>-1.2031432668679514</v>
+      </c>
+      <c r="K18">
+        <v>0.6340343370804447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>340</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>340</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>400</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>2166</v>
+      </c>
+      <c r="I19">
+        <v>-0.8581830143669537</v>
+      </c>
+      <c r="J19">
+        <v>-0.7760055835667456</v>
+      </c>
+      <c r="K19">
+        <v>1.218721821429883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>340</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>340</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>441</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>2400</v>
+      </c>
+      <c r="I20">
+        <v>-0.4167487289331419</v>
+      </c>
+      <c r="J20">
+        <v>-0.34750699455585216</v>
+      </c>
+      <c r="K20">
+        <v>1.8830852081782756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>340</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>340</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>484</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>2646</v>
+      </c>
+      <c r="I21">
+        <v>-0.05330242945136837</v>
+      </c>
+      <c r="J21">
+        <v>-0.04571790263039868</v>
+      </c>
+      <c r="K21">
+        <v>2.5153643356194264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>340</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>340</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>529</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>2904</v>
+      </c>
+      <c r="I22">
+        <v>-2.7012253113577034e-6</v>
+      </c>
+      <c r="J22">
+        <v>-2.112069143699429e-5</v>
+      </c>
+      <c r="K22">
+        <v>2.277387758856348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>340</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>340</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>576</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>3174</v>
+      </c>
+      <c r="I23">
+        <v>-2.9704625482764604e-6</v>
+      </c>
+      <c r="J23">
+        <v>-6.5048522075762434e-6</v>
+      </c>
+      <c r="K23">
+        <v>1.9814135516336326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>340</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>340</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>625</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>3456</v>
+      </c>
+      <c r="I24">
+        <v>-2.1111830486413023e-6</v>
+      </c>
+      <c r="J24">
+        <v>-3.41316791284811e-6</v>
+      </c>
+      <c r="K24">
+        <v>1.818133969291451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>340</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>340</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>676</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <v>3750</v>
+      </c>
+      <c r="I25">
+        <v>-2.550215896120674e-6</v>
+      </c>
+      <c r="J25">
+        <v>-3.043345678060387e-6</v>
+      </c>
+      <c r="K25">
+        <v>1.7487075978711784</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>340</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>340</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>729</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <v>4056</v>
+      </c>
+      <c r="I26">
+        <v>-6.756545951841332e-7</v>
+      </c>
+      <c r="J26">
+        <v>-1.2425239367448534e-6</v>
+      </c>
+      <c r="K26">
+        <v>1.6127669405620235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>340</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>340</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>784</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <v>4374</v>
+      </c>
+      <c r="I27">
+        <v>-1.4270666532707896e-6</v>
+      </c>
+      <c r="J27">
+        <v>-1.6511634095465496e-6</v>
+      </c>
+      <c r="K27">
+        <v>1.6088180369731697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>340</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>340</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>841</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>4704</v>
+      </c>
+      <c r="I28">
+        <v>-3.3966755579332417e-7</v>
+      </c>
+      <c r="J28">
+        <v>-7.189147298458598e-7</v>
+      </c>
+      <c r="K28">
+        <v>1.501900857660276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>340</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>340</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>900</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>5046</v>
+      </c>
+      <c r="I29">
+        <v>-5.275089542313971e-7</v>
+      </c>
+      <c r="J29">
+        <v>-7.726653936126433e-7</v>
+      </c>
+      <c r="K29">
+        <v>1.4753514953795746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>340</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>340</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>961</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>5400</v>
+      </c>
+      <c r="I30">
+        <v>-4.7114397195721957e-7</v>
+      </c>
+      <c r="J30">
+        <v>-6.426623914665649e-7</v>
+      </c>
+      <c r="K30">
+        <v>1.4186022302268806</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>340</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>340</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>1024</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>5766</v>
+      </c>
+      <c r="I31">
+        <v>-4.4396181704957005e-7</v>
+      </c>
+      <c r="J31">
+        <v>-5.12707257006108e-7</v>
+      </c>
+      <c r="K31">
+        <v>1.3407597847441477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>340</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>340</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>1089</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>6144</v>
+      </c>
+      <c r="I32">
+        <v>-6.211008292899292e-7</v>
+      </c>
+      <c r="J32">
+        <v>-5.793437559100318e-7</v>
+      </c>
+      <c r="K32">
+        <v>1.316483064622602</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xls/square_high_un_16_tri3_16.xlsx
+++ b/xls/square_high_un_16_tri3_16.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16">
-        <v>1536</v>
+        <v>1842</v>
       </c>
       <c r="I16">
-        <v>-2.0120290986330533</v>
+        <v>-2.2741835156299834</v>
       </c>
       <c r="J16">
-        <v>-1.8918186959219436</v>
+        <v>-1.9567976488906538</v>
       </c>
       <c r="K16">
-        <v>-0.7420160667927064</v>
+        <v>-0.7599434792960631</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F17">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17">
-        <v>1734</v>
+        <v>2070</v>
       </c>
       <c r="I17">
-        <v>-1.900556394055784</v>
+        <v>-1.4179872669054239</v>
       </c>
       <c r="J17">
-        <v>-1.55502401116296</v>
+        <v>-1.2506118078332884</v>
       </c>
       <c r="K17">
-        <v>0.09068787174600824</v>
+        <v>0.6418220660057551</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18">
-        <v>1944</v>
+        <v>2388</v>
       </c>
       <c r="I18">
-        <v>-1.3959937485262996</v>
+        <v>-0.6175534832695287</v>
       </c>
       <c r="J18">
-        <v>-1.2031432668679514</v>
+        <v>-0.5414445239239548</v>
       </c>
       <c r="K18">
-        <v>0.6340343370804447</v>
+        <v>1.8240906086082394</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19">
-        <v>2166</v>
+        <v>2676</v>
       </c>
       <c r="I19">
-        <v>-0.8581830143669537</v>
+        <v>-0.05238329056504097</v>
       </c>
       <c r="J19">
-        <v>-0.7760055835667456</v>
+        <v>-0.05275223204234437</v>
       </c>
       <c r="K19">
-        <v>1.218721821429883</v>
+        <v>2.67177141615025</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20">
-        <v>2400</v>
+        <v>3138</v>
       </c>
       <c r="I20">
-        <v>-0.4167487289331419</v>
+        <v>1.866342222636071e-6</v>
       </c>
       <c r="J20">
-        <v>-0.34750699455585216</v>
+        <v>-3.2503839701351296e-6</v>
       </c>
       <c r="K20">
-        <v>1.8830852081782756</v>
+        <v>1.9426028984643646</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21">
-        <v>2646</v>
+        <v>3330</v>
       </c>
       <c r="I21">
-        <v>-0.05330242945136837</v>
+        <v>7.408647376645367e-7</v>
       </c>
       <c r="J21">
-        <v>-0.04571790263039868</v>
+        <v>-1.979303108423715e-6</v>
       </c>
       <c r="K21">
-        <v>2.5153643356194264</v>
+        <v>1.8152100908494855</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>2904</v>
+        <v>3738</v>
       </c>
       <c r="I22">
-        <v>-2.7012253113577034e-6</v>
+        <v>-9.221053127193706e-7</v>
       </c>
       <c r="J22">
-        <v>-2.112069143699429e-5</v>
+        <v>-1.3747505130801248e-6</v>
       </c>
       <c r="K22">
-        <v>2.277387758856348</v>
+        <v>1.5875672476350826</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-2.9704625482764604e-6</v>
+        <v>-7.142778031383366e-7</v>
       </c>
       <c r="J23">
-        <v>-6.5048522075762434e-6</v>
+        <v>-7.794220092341337e-7</v>
       </c>
       <c r="K23">
-        <v>1.9814135516336326</v>
+        <v>1.4148303774012434</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>-2.1111830486413023e-6</v>
+        <v>-7.678015982985184e-7</v>
       </c>
       <c r="J24">
-        <v>-3.41316791284811e-6</v>
+        <v>-7.897977164433778e-7</v>
       </c>
       <c r="K24">
-        <v>1.818133969291451</v>
+        <v>1.4056641241265837</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-2.550215896120674e-6</v>
+        <v>-6.128560922820889e-7</v>
       </c>
       <c r="J25">
-        <v>-3.043345678060387e-6</v>
+        <v>-6.238578082453719e-7</v>
       </c>
       <c r="K25">
-        <v>1.7487075978711784</v>
+        <v>1.3500117152324864</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -826,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-6.756545951841332e-7</v>
+        <v>-5.131627742093671e-7</v>
       </c>
       <c r="J26">
-        <v>-1.2425239367448534e-6</v>
+        <v>-5.3783222029235e-7</v>
       </c>
       <c r="K26">
-        <v>1.6127669405620235</v>
+        <v>1.3264555278461352</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-1.4270666532707896e-6</v>
+        <v>-5.820093822905622e-7</v>
       </c>
       <c r="J27">
-        <v>-1.6511634095465496e-6</v>
+        <v>-5.54054375361698e-7</v>
       </c>
       <c r="K27">
-        <v>1.6088180369731697</v>
+        <v>1.307393759674333</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -896,22 +896,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-3.3966755579332417e-7</v>
+        <v>-5.120513181340164e-7</v>
       </c>
       <c r="J28">
-        <v>-7.189147298458598e-7</v>
+        <v>-4.847824276549992e-7</v>
       </c>
       <c r="K28">
-        <v>1.501900857660276</v>
+        <v>1.2792749161556987</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -931,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-5.275089542313971e-7</v>
+        <v>-5.325210337922654e-7</v>
       </c>
       <c r="J29">
-        <v>-7.726653936126433e-7</v>
+        <v>-5.024864497184461e-7</v>
       </c>
       <c r="K29">
-        <v>1.4753514953795746</v>
+        <v>1.2853777074349932</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -966,22 +966,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-4.7114397195721957e-7</v>
+        <v>-5.045966413580548e-7</v>
       </c>
       <c r="J30">
-        <v>-6.426623914665649e-7</v>
+        <v>-4.685216819748487e-7</v>
       </c>
       <c r="K30">
-        <v>1.4186022302268806</v>
+        <v>1.2659776647124767</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1001,22 +1001,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-4.4396181704957005e-7</v>
+        <v>-4.735429936737068e-7</v>
       </c>
       <c r="J31">
-        <v>-5.12707257006108e-7</v>
+        <v>-4.373235488400421e-7</v>
       </c>
       <c r="K31">
-        <v>1.3407597847441477</v>
+        <v>1.2479928494458985</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1036,22 +1036,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-6.211008292899292e-7</v>
+        <v>-4.220598065697306e-7</v>
       </c>
       <c r="J32">
-        <v>-5.793437559100318e-7</v>
+        <v>-3.979837643432103e-7</v>
       </c>
       <c r="K32">
-        <v>1.316483064622602</v>
+        <v>1.2356543435519958</v>
       </c>
     </row>
   </sheetData>
